--- a/data/full_data/lchltd.xlsx
+++ b/data/full_data/lchltd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>CCP</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Q4-2017</t>
+  </si>
+  <si>
+    <t>Q4-2015</t>
   </si>
   <si>
     <t>Q1-2017</t>
@@ -498,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2699,7 +2702,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="n">
-        <v>196426</v>
+        <v>183705</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2708,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>21812739</v>
+        <v>14512721</v>
       </c>
       <c r="I27" t="n">
-        <v>21812739</v>
+        <v>14512721</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2720,34 +2723,34 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>21812739</v>
+        <v>14512721</v>
       </c>
       <c r="M27" t="n">
-        <v>21812739</v>
+        <v>14512721</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>11374052</v>
+        <v>-77523653</v>
       </c>
       <c r="P27" t="n">
-        <v>4283977</v>
+        <v>-48222651</v>
       </c>
       <c r="Q27" t="n">
-        <v>131587316</v>
+        <v>133278221</v>
       </c>
       <c r="R27" t="n">
-        <v>134019268</v>
+        <v>137319739</v>
       </c>
       <c r="S27" t="n">
-        <v>153491330000</v>
+        <v>96659600000</v>
       </c>
       <c r="T27" t="n">
-        <v>144987870000</v>
+        <v>91881100000</v>
       </c>
       <c r="U27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2759,7 +2762,7 @@
         <v>31</v>
       </c>
       <c r="Y27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z27" t="s"/>
       <c r="AA27" t="s"/>
@@ -2780,7 +2783,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>1835119</v>
+        <v>2316234</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2789,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>202903463</v>
+        <v>201648613</v>
       </c>
       <c r="I28" t="n">
-        <v>202903463</v>
+        <v>201648613</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2801,34 +2804,34 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>202903463</v>
+        <v>201648613</v>
       </c>
       <c r="M28" t="n">
-        <v>202903463</v>
+        <v>201648613</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>95437915</v>
+        <v>-137884053</v>
       </c>
       <c r="P28" t="n">
-        <v>19274601</v>
+        <v>-52592139</v>
       </c>
       <c r="Q28" t="n">
-        <v>406777085</v>
+        <v>262688194</v>
       </c>
       <c r="R28" t="n">
-        <v>2074713920</v>
+        <v>773622181</v>
       </c>
       <c r="S28" t="n">
-        <v>153491330000</v>
+        <v>96659600000</v>
       </c>
       <c r="T28" t="n">
-        <v>144987870000</v>
+        <v>91881100000</v>
       </c>
       <c r="U28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V28" t="n">
         <v>13</v>
@@ -2840,15 +2843,15 @@
         <v>31</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="s"/>
       <c r="AA28" t="s"/>
       <c r="AB28" t="n">
-        <v>481798647</v>
+        <v>957684141</v>
       </c>
       <c r="AC28" t="n">
-        <v>2973605944</v>
+        <v>1241007799</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2865,7 +2868,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>10610000</v>
+        <v>15000000</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2874,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1170000000</v>
+        <v>1163200000</v>
       </c>
       <c r="I29" t="n">
-        <v>1170000000</v>
+        <v>1163200000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,37 +2889,37 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1170000000</v>
+        <v>1163200000</v>
       </c>
       <c r="M29" t="n">
-        <v>1170000000</v>
+        <v>1163200000</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>835490000</v>
+        <v>-706900000</v>
       </c>
       <c r="P29" t="n">
-        <v>484520000</v>
+        <v>-433100000</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>11352000000</v>
+        <v>9463000000</v>
       </c>
       <c r="S29" t="n">
-        <v>153491330000</v>
+        <v>96659600000</v>
       </c>
       <c r="T29" t="n">
-        <v>144987870000</v>
+        <v>91881100000</v>
       </c>
       <c r="U29" t="n">
         <v>8</v>
       </c>
       <c r="V29" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2946,7 +2949,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="n">
-        <v>13141895</v>
+        <v>681245</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2955,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1449817603</v>
+        <v>52455889</v>
       </c>
       <c r="I30" t="n">
-        <v>1449817603</v>
+        <v>52455889</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,55 +2970,55 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1449817603</v>
+        <v>52455889</v>
       </c>
       <c r="M30" t="n">
-        <v>1449817603</v>
+        <v>52455889</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1456814142</v>
+        <v>-19756115</v>
       </c>
       <c r="P30" t="n">
-        <v>371490038</v>
+        <v>-5449963</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5241474137</v>
+        <v>24933578</v>
       </c>
       <c r="S30" t="n">
-        <v>153491330000</v>
+        <v>96659600000</v>
       </c>
       <c r="T30" t="n">
-        <v>144987870000</v>
+        <v>91881100000</v>
       </c>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
-      <c r="X30" t="n">
-        <v>5</v>
+      <c r="X30" t="s">
+        <v>31</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>34711888498</v>
+        <v>3295030764</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>1094705509301</v>
+        <v>135847616417</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -3035,7 +3038,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="n">
-        <v>47736490</v>
+        <v>4041517</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3044,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5735181700</v>
+        <v>317534674</v>
       </c>
       <c r="I31" t="n">
-        <v>5735181700</v>
+        <v>317534674</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3056,55 +3059,55 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>5735181700</v>
+        <v>317534674</v>
       </c>
       <c r="M31" t="n">
-        <v>5735181700</v>
+        <v>317534674</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>4229927647</v>
+        <v>-233581336</v>
       </c>
       <c r="P31" t="n">
-        <v>3313583392</v>
+        <v>-160834023</v>
       </c>
       <c r="Q31" t="n">
-        <v>55363342021</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102338901032</v>
+        <v>507302287</v>
       </c>
       <c r="S31" t="n">
-        <v>153491330000</v>
+        <v>96659600000</v>
       </c>
       <c r="T31" t="n">
-        <v>144987870000</v>
+        <v>91881100000</v>
       </c>
       <c r="U31" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="V31" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>17848</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="Z31" t="n">
-        <v>2781278850853</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>195248673382383</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -3124,7 +3127,7 @@
         <v>30</v>
       </c>
       <c r="E32" t="n">
-        <v>2011658</v>
+        <v>196426</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3133,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>257172248</v>
+        <v>21812739</v>
       </c>
       <c r="I32" t="n">
-        <v>257172248</v>
+        <v>21812739</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3145,46 +3148,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>257172248</v>
+        <v>21812739</v>
       </c>
       <c r="M32" t="n">
-        <v>257172248</v>
+        <v>21812739</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>137478568</v>
+        <v>11374052</v>
       </c>
       <c r="P32" t="n">
-        <v>56509315</v>
+        <v>4283977</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>131587316</v>
       </c>
       <c r="R32" t="n">
-        <v>2172819750</v>
+        <v>134019268</v>
       </c>
       <c r="S32" t="n">
-        <v>163490700000</v>
+        <v>153491330000</v>
       </c>
       <c r="T32" t="n">
-        <v>153910140000</v>
+        <v>144987870000</v>
       </c>
       <c r="U32" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V32" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>31</v>
       </c>
       <c r="Y32" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="s"/>
       <c r="AA32" t="s"/>
@@ -3205,7 +3208,7 @@
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>11260000</v>
+        <v>1835119</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3214,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1431230000</v>
+        <v>202903463</v>
       </c>
       <c r="I33" t="n">
-        <v>1431230000</v>
+        <v>202903463</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3226,58 +3229,54 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1431230000</v>
+        <v>202903463</v>
       </c>
       <c r="M33" t="n">
-        <v>1431230000</v>
+        <v>202903463</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>824190000</v>
+        <v>95437915</v>
       </c>
       <c r="P33" t="n">
-        <v>527770000</v>
+        <v>19274601</v>
       </c>
       <c r="Q33" t="n">
-        <v>493770716</v>
+        <v>406777085</v>
       </c>
       <c r="R33" t="n">
-        <v>11988000000</v>
+        <v>2074713920</v>
       </c>
       <c r="S33" t="n">
-        <v>163490700000</v>
+        <v>153491330000</v>
       </c>
       <c r="T33" t="n">
-        <v>153910140000</v>
+        <v>144987870000</v>
       </c>
       <c r="U33" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="V33" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X33" t="s">
+        <v>31</v>
       </c>
       <c r="Y33" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Z33" t="s"/>
+      <c r="AA33" t="s"/>
       <c r="AB33" t="n">
-        <v>443002454</v>
+        <v>481798647</v>
       </c>
       <c r="AC33" t="n">
-        <v>2758314384</v>
+        <v>2973605944</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3294,7 +3293,7 @@
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>15932148</v>
+        <v>10610000</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3303,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2035484132</v>
+        <v>1170000000</v>
       </c>
       <c r="I34" t="n">
-        <v>2035484132</v>
+        <v>1170000000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3315,46 +3314,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2035484132</v>
+        <v>1170000000</v>
       </c>
       <c r="M34" t="n">
-        <v>2035484132</v>
+        <v>1170000000</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1385796607</v>
+        <v>835490000</v>
       </c>
       <c r="P34" t="n">
-        <v>904821037</v>
+        <v>484520000</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3406379352</v>
+        <v>11352000000</v>
       </c>
       <c r="S34" t="n">
-        <v>163490700000</v>
+        <v>153491330000</v>
       </c>
       <c r="T34" t="n">
-        <v>153910140000</v>
+        <v>144987870000</v>
       </c>
       <c r="U34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V34" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="s"/>
       <c r="AA34" t="s"/>
@@ -3375,7 +3374,7 @@
         <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>44862269</v>
+        <v>13141895</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3384,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5729797691</v>
+        <v>1449817603</v>
       </c>
       <c r="I35" t="n">
-        <v>5729797691</v>
+        <v>1449817603</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3396,55 +3395,55 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>5729797691</v>
+        <v>1449817603</v>
       </c>
       <c r="M35" t="n">
-        <v>5729797691</v>
+        <v>1449817603</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3871985369</v>
+        <v>1456814142</v>
       </c>
       <c r="P35" t="n">
-        <v>3597291118</v>
+        <v>371490038</v>
       </c>
       <c r="Q35" t="n">
-        <v>14609203</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>111905360612</v>
+        <v>5241474137</v>
       </c>
       <c r="S35" t="n">
-        <v>163490700000</v>
+        <v>153491330000</v>
       </c>
       <c r="T35" t="n">
-        <v>153910140000</v>
+        <v>144987870000</v>
       </c>
       <c r="U35" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="V35" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>19690</v>
+        <v>5</v>
       </c>
       <c r="Y35" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="Z35" t="n">
-        <v>54970546215</v>
+        <v>34711888498</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>1400459305244</v>
+        <v>1094705509301</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -3463,41 +3462,77 @@
       <c r="D36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" t="s"/>
-      <c r="F36" t="s"/>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s"/>
-      <c r="J36" t="s"/>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
-      <c r="M36" t="s"/>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
+      <c r="E36" t="n">
+        <v>47736490</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5735181700</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5735181700</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5735181700</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5735181700</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4229927647</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3313583392</v>
+      </c>
       <c r="Q36" t="n">
-        <v>62649445650</v>
-      </c>
-      <c r="R36" t="s"/>
+        <v>55363342021</v>
+      </c>
+      <c r="R36" t="n">
+        <v>102338901032</v>
+      </c>
       <c r="S36" t="n">
-        <v>163490700000</v>
+        <v>153491330000</v>
       </c>
       <c r="T36" t="n">
-        <v>153910140000</v>
-      </c>
-      <c r="U36" t="s"/>
-      <c r="V36" t="s"/>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
+        <v>144987870000</v>
+      </c>
+      <c r="U36" t="n">
+        <v>55</v>
+      </c>
+      <c r="V36" t="n">
+        <v>54</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>17848</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>55</v>
+      </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>2781278850853</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>195248673382383</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
@@ -3517,7 +3552,7 @@
         <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>184016</v>
+        <v>2011658</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3526,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24447949</v>
+        <v>257172248</v>
       </c>
       <c r="I37" t="n">
-        <v>24447949</v>
+        <v>257172248</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3538,46 +3573,46 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24447949</v>
+        <v>257172248</v>
       </c>
       <c r="M37" t="n">
-        <v>24447949</v>
+        <v>257172248</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>15509989</v>
+        <v>137478568</v>
       </c>
       <c r="P37" t="n">
-        <v>4100946</v>
+        <v>56509315</v>
       </c>
       <c r="Q37" t="n">
-        <v>111163687</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>113038906</v>
+        <v>2172819750</v>
       </c>
       <c r="S37" t="n">
-        <v>151673290000</v>
+        <v>163490700000</v>
       </c>
       <c r="T37" t="n">
-        <v>142946690000</v>
+        <v>153910140000</v>
       </c>
       <c r="U37" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z37" t="s"/>
       <c r="AA37" t="s"/>
@@ -3598,7 +3633,7 @@
         <v>32</v>
       </c>
       <c r="E38" t="n">
-        <v>1921917</v>
+        <v>11260000</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3607,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>255876633</v>
+        <v>1431230000</v>
       </c>
       <c r="I38" t="n">
-        <v>255876633</v>
+        <v>1431230000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3619,54 +3654,58 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>255876633</v>
+        <v>1431230000</v>
       </c>
       <c r="M38" t="n">
-        <v>255876633</v>
+        <v>1431230000</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>99871493</v>
+        <v>824190000</v>
       </c>
       <c r="P38" t="n">
-        <v>23608884</v>
+        <v>527770000</v>
       </c>
       <c r="Q38" t="n">
-        <v>414315444</v>
+        <v>493770716</v>
       </c>
       <c r="R38" t="n">
-        <v>2000011372</v>
+        <v>11988000000</v>
       </c>
       <c r="S38" t="n">
-        <v>151673290000</v>
+        <v>163490700000</v>
       </c>
       <c r="T38" t="n">
-        <v>142946690000</v>
+        <v>153910140000</v>
       </c>
       <c r="U38" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V38" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
-      </c>
-      <c r="X38" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z38" t="s"/>
-      <c r="AA38" t="s"/>
+        <v>7</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
       <c r="AB38" t="n">
-        <v>502502504</v>
+        <v>443002454</v>
       </c>
       <c r="AC38" t="n">
-        <v>3039244791</v>
+        <v>2758314384</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3683,7 +3722,7 @@
         <v>33</v>
       </c>
       <c r="E39" t="n">
-        <v>8460000</v>
+        <v>15932148</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3692,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1125410000</v>
+        <v>2035484132</v>
       </c>
       <c r="I39" t="n">
-        <v>1125410000</v>
+        <v>2035484132</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3704,46 +3743,46 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1125410000</v>
+        <v>2035484132</v>
       </c>
       <c r="M39" t="n">
-        <v>1125410000</v>
+        <v>2035484132</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1428130000</v>
+        <v>1385796607</v>
       </c>
       <c r="P39" t="n">
-        <v>532490000</v>
+        <v>904821037</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>11513000000</v>
+        <v>3406379352</v>
       </c>
       <c r="S39" t="n">
-        <v>151673290000</v>
+        <v>163490700000</v>
       </c>
       <c r="T39" t="n">
-        <v>142946690000</v>
+        <v>153910140000</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V39" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="s"/>
       <c r="AA39" t="s"/>
@@ -3764,7 +3803,7 @@
         <v>34</v>
       </c>
       <c r="E40" t="n">
-        <v>20399579</v>
+        <v>44862269</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3773,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2710997195</v>
+        <v>5729797691</v>
       </c>
       <c r="I40" t="n">
-        <v>2710997195</v>
+        <v>5729797691</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3785,55 +3824,55 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2710997195</v>
+        <v>5729797691</v>
       </c>
       <c r="M40" t="n">
-        <v>2710997195</v>
+        <v>5729797691</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2041368734</v>
+        <v>3871985369</v>
       </c>
       <c r="P40" t="n">
-        <v>681493165</v>
+        <v>3597291118</v>
       </c>
       <c r="Q40" t="n">
-        <v>184016</v>
+        <v>14609203</v>
       </c>
       <c r="R40" t="n">
-        <v>4101340694</v>
+        <v>111905360612</v>
       </c>
       <c r="S40" t="n">
-        <v>151673290000</v>
+        <v>163490700000</v>
       </c>
       <c r="T40" t="n">
-        <v>142946690000</v>
+        <v>153910140000</v>
       </c>
       <c r="U40" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="V40" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>17</v>
+        <v>19690</v>
       </c>
       <c r="Y40" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Z40" t="n">
-        <v>32373913419</v>
+        <v>54970546215</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>1022701366976</v>
+        <v>1400459305244</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -3852,77 +3891,41 @@
       <c r="D41" t="s">
         <v>35</v>
       </c>
-      <c r="E41" t="n">
-        <v>42896296</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5700931390</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5700931390</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5700931390</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5700931390</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>4268715954</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3543572947</v>
-      </c>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s"/>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>54021812061</v>
-      </c>
-      <c r="R41" t="n">
-        <v>100963233370</v>
-      </c>
+        <v>62649445650</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>151673290000</v>
+        <v>163490700000</v>
       </c>
       <c r="T41" t="n">
-        <v>142946690000</v>
-      </c>
-      <c r="U41" t="n">
-        <v>55</v>
-      </c>
-      <c r="V41" t="n">
-        <v>55</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>18358</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>55</v>
-      </c>
+        <v>153910140000</v>
+      </c>
+      <c r="U41" t="s"/>
+      <c r="V41" t="s"/>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
       <c r="Z41" t="n">
-        <v>2406243664135</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>197014718866154</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
         <v>0</v>
@@ -3942,7 +3945,7 @@
         <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>135524</v>
+        <v>184016</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3951,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>15348128</v>
+        <v>24447949</v>
       </c>
       <c r="I42" t="n">
-        <v>15348128</v>
+        <v>24447949</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3963,31 +3966,31 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>15348128</v>
+        <v>24447949</v>
       </c>
       <c r="M42" t="n">
-        <v>15348128</v>
+        <v>24447949</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>10850415</v>
+        <v>15509989</v>
       </c>
       <c r="P42" t="n">
-        <v>3769269</v>
+        <v>4100946</v>
       </c>
       <c r="Q42" t="n">
-        <v>77994240</v>
+        <v>111163687</v>
       </c>
       <c r="R42" t="n">
-        <v>78815856</v>
+        <v>113038906</v>
       </c>
       <c r="S42" t="n">
-        <v>153362770000</v>
+        <v>151673290000</v>
       </c>
       <c r="T42" t="n">
-        <v>144392470000</v>
+        <v>142946690000</v>
       </c>
       <c r="U42" t="n">
         <v>19</v>
@@ -4023,7 +4026,7 @@
         <v>32</v>
       </c>
       <c r="E43" t="n">
-        <v>1530994</v>
+        <v>1921917</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4032,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>173138424</v>
+        <v>255876633</v>
       </c>
       <c r="I43" t="n">
-        <v>173138424</v>
+        <v>255876633</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4044,31 +4047,31 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>173138424</v>
+        <v>255876633</v>
       </c>
       <c r="M43" t="n">
-        <v>173138424</v>
+        <v>255876633</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>92596792</v>
+        <v>99871493</v>
       </c>
       <c r="P43" t="n">
-        <v>32377690</v>
+        <v>23608884</v>
       </c>
       <c r="Q43" t="n">
-        <v>363877611</v>
+        <v>414315444</v>
       </c>
       <c r="R43" t="n">
-        <v>1615051373</v>
+        <v>2000011372</v>
       </c>
       <c r="S43" t="n">
-        <v>153362770000</v>
+        <v>151673290000</v>
       </c>
       <c r="T43" t="n">
-        <v>144392470000</v>
+        <v>142946690000</v>
       </c>
       <c r="U43" t="n">
         <v>22</v>
@@ -4088,10 +4091,10 @@
       <c r="Z43" t="s"/>
       <c r="AA43" t="s"/>
       <c r="AB43" t="n">
-        <v>481043372</v>
+        <v>502502504</v>
       </c>
       <c r="AC43" t="n">
-        <v>2467996012</v>
+        <v>3039244791</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4108,7 +4111,7 @@
         <v>33</v>
       </c>
       <c r="E44" t="n">
-        <v>9610000</v>
+        <v>8460000</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4117,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1082320000</v>
+        <v>1125410000</v>
       </c>
       <c r="I44" t="n">
-        <v>1082320000</v>
+        <v>1125410000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4129,37 +4132,37 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1082320000</v>
+        <v>1125410000</v>
       </c>
       <c r="M44" t="n">
-        <v>1082320000</v>
+        <v>1125410000</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>835490000</v>
+        <v>1428130000</v>
       </c>
       <c r="P44" t="n">
-        <v>530240000</v>
+        <v>532490000</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>12723000000</v>
+        <v>11513000000</v>
       </c>
       <c r="S44" t="n">
-        <v>153362770000</v>
+        <v>151673290000</v>
       </c>
       <c r="T44" t="n">
-        <v>144392470000</v>
+        <v>142946690000</v>
       </c>
       <c r="U44" t="n">
         <v>8</v>
       </c>
       <c r="V44" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4189,7 +4192,7 @@
         <v>34</v>
       </c>
       <c r="E45" t="n">
-        <v>12764695</v>
+        <v>20399579</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4198,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1448585465</v>
+        <v>2710997195</v>
       </c>
       <c r="I45" t="n">
-        <v>1448585465</v>
+        <v>2710997195</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4210,37 +4213,37 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1448585465</v>
+        <v>2710997195</v>
       </c>
       <c r="M45" t="n">
-        <v>1448585465</v>
+        <v>2710997195</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1416991360</v>
+        <v>2041368734</v>
       </c>
       <c r="P45" t="n">
-        <v>775791970</v>
+        <v>681493165</v>
       </c>
       <c r="Q45" t="n">
-        <v>34473996</v>
+        <v>184016</v>
       </c>
       <c r="R45" t="n">
-        <v>3083017109</v>
+        <v>4101340694</v>
       </c>
       <c r="S45" t="n">
-        <v>153362770000</v>
+        <v>151673290000</v>
       </c>
       <c r="T45" t="n">
-        <v>144392470000</v>
+        <v>142946690000</v>
       </c>
       <c r="U45" t="n">
         <v>11</v>
       </c>
       <c r="V45" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4252,13 +4255,13 @@
         <v>11</v>
       </c>
       <c r="Z45" t="n">
-        <v>39872192101</v>
+        <v>32373913419</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>1281436574617</v>
+        <v>1022701366976</v>
       </c>
       <c r="AC45" t="n">
         <v>0</v>
@@ -4278,7 +4281,7 @@
         <v>35</v>
       </c>
       <c r="E46" t="n">
-        <v>49967111</v>
+        <v>42896296</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4287,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5670348613</v>
+        <v>5700931390</v>
       </c>
       <c r="I46" t="n">
-        <v>5670348613</v>
+        <v>5700931390</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4299,34 +4302,34 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5670348613</v>
+        <v>5700931390</v>
       </c>
       <c r="M46" t="n">
-        <v>5670348613</v>
+        <v>5700931390</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5176268456</v>
+        <v>4268715954</v>
       </c>
       <c r="P46" t="n">
-        <v>3639649345</v>
+        <v>3543572947</v>
       </c>
       <c r="Q46" t="n">
-        <v>54698450860</v>
+        <v>54021812061</v>
       </c>
       <c r="R46" t="n">
-        <v>102088956429</v>
+        <v>100963233370</v>
       </c>
       <c r="S46" t="n">
-        <v>153362770000</v>
+        <v>151673290000</v>
       </c>
       <c r="T46" t="n">
-        <v>144392470000</v>
+        <v>142946690000</v>
       </c>
       <c r="U46" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V46" t="n">
         <v>55</v>
@@ -4335,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>18831</v>
+        <v>18358</v>
       </c>
       <c r="Y46" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z46" t="n">
-        <v>2005306162171</v>
+        <v>2406243664135</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>192654778120320</v>
+        <v>197014718866154</v>
       </c>
       <c r="AC46" t="n">
         <v>0</v>
@@ -4367,7 +4370,7 @@
         <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>161275</v>
+        <v>135524</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -4376,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>13439655</v>
+        <v>15348128</v>
       </c>
       <c r="I47" t="n">
-        <v>13439655</v>
+        <v>15348128</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -4388,34 +4391,34 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>13439655</v>
+        <v>15348128</v>
       </c>
       <c r="M47" t="n">
-        <v>13439655</v>
+        <v>15348128</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>-73756832</v>
+        <v>10850415</v>
       </c>
       <c r="P47" t="n">
-        <v>-5590897</v>
+        <v>3769269</v>
       </c>
       <c r="Q47" t="n">
-        <v>90852074</v>
+        <v>77994240</v>
       </c>
       <c r="R47" t="n">
-        <v>93844637</v>
+        <v>78815856</v>
       </c>
       <c r="S47" t="n">
-        <v>130878430000</v>
+        <v>153362770000</v>
       </c>
       <c r="T47" t="n">
-        <v>124033930000</v>
+        <v>144392470000</v>
       </c>
       <c r="U47" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4427,7 +4430,7 @@
         <v>31</v>
       </c>
       <c r="Y47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="s"/>
       <c r="AA47" t="s"/>
@@ -4448,7 +4451,7 @@
         <v>32</v>
       </c>
       <c r="E48" t="n">
-        <v>2961569</v>
+        <v>1530994</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -4457,10 +4460,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>252511526</v>
+        <v>173138424</v>
       </c>
       <c r="I48" t="n">
-        <v>251930827</v>
+        <v>173138424</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -4469,34 +4472,34 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>252511526</v>
+        <v>173138424</v>
       </c>
       <c r="M48" t="n">
-        <v>252511526</v>
+        <v>173138424</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>-103922047</v>
+        <v>92596792</v>
       </c>
       <c r="P48" t="n">
-        <v>-26061810</v>
+        <v>32377690</v>
       </c>
       <c r="Q48" t="n">
-        <v>386548668</v>
+        <v>363877611</v>
       </c>
       <c r="R48" t="n">
-        <v>1784479054</v>
+        <v>1615051373</v>
       </c>
       <c r="S48" t="n">
-        <v>130878430000</v>
+        <v>153362770000</v>
       </c>
       <c r="T48" t="n">
-        <v>124033930000</v>
+        <v>144392470000</v>
       </c>
       <c r="U48" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V48" t="n">
         <v>13</v>
@@ -4508,15 +4511,15 @@
         <v>31</v>
       </c>
       <c r="Y48" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z48" t="s"/>
       <c r="AA48" t="s"/>
       <c r="AB48" t="n">
-        <v>559606904</v>
+        <v>481043372</v>
       </c>
       <c r="AC48" t="n">
-        <v>2626235802</v>
+        <v>2467996012</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4533,7 +4536,7 @@
         <v>33</v>
       </c>
       <c r="E49" t="n">
-        <v>7550000</v>
+        <v>9610000</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -4542,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>742480000</v>
+        <v>1082320000</v>
       </c>
       <c r="I49" t="n">
-        <v>741180000</v>
+        <v>1082320000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -4554,37 +4557,37 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>742480000</v>
+        <v>1082320000</v>
       </c>
       <c r="M49" t="n">
-        <v>742480000</v>
+        <v>1082320000</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>-699150000</v>
+        <v>835490000</v>
       </c>
       <c r="P49" t="n">
-        <v>-404600000</v>
+        <v>530240000</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>11667240000</v>
+        <v>12723000000</v>
       </c>
       <c r="S49" t="n">
-        <v>130878430000</v>
+        <v>153362770000</v>
       </c>
       <c r="T49" t="n">
-        <v>124033930000</v>
+        <v>144392470000</v>
       </c>
       <c r="U49" t="n">
         <v>8</v>
       </c>
       <c r="V49" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4614,7 +4617,7 @@
         <v>34</v>
       </c>
       <c r="E50" t="n">
-        <v>5124988</v>
+        <v>12764695</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -4623,10 +4626,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>435391093</v>
+        <v>1448585465</v>
       </c>
       <c r="I50" t="n">
-        <v>435391093</v>
+        <v>1448585465</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -4635,55 +4638,55 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>435391093</v>
+        <v>1448585465</v>
       </c>
       <c r="M50" t="n">
-        <v>435391093</v>
+        <v>1448585465</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>-352065228</v>
+        <v>1416991360</v>
       </c>
       <c r="P50" t="n">
-        <v>-151420124</v>
+        <v>775791970</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>34473996</v>
       </c>
       <c r="R50" t="n">
-        <v>854672520</v>
+        <v>3083017109</v>
       </c>
       <c r="S50" t="n">
-        <v>130878430000</v>
+        <v>153362770000</v>
       </c>
       <c r="T50" t="n">
-        <v>124033930000</v>
+        <v>144392470000</v>
       </c>
       <c r="U50" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V50" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Y50" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z50" t="n">
-        <v>8550291185</v>
+        <v>39872192101</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>350410715878</v>
+        <v>1281436574617</v>
       </c>
       <c r="AC50" t="n">
         <v>0</v>
@@ -4703,78 +4706,503 @@
         <v>35</v>
       </c>
       <c r="E51" t="n">
+        <v>49967111</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5670348613</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5670348613</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5670348613</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5670348613</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>5176268456</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3639649345</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>54698450860</v>
+      </c>
+      <c r="R51" t="n">
+        <v>102088956429</v>
+      </c>
+      <c r="S51" t="n">
+        <v>153362770000</v>
+      </c>
+      <c r="T51" t="n">
+        <v>144392470000</v>
+      </c>
+      <c r="U51" t="n">
+        <v>54</v>
+      </c>
+      <c r="V51" t="n">
+        <v>55</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>18831</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2005306162171</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>192654778120320</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="n">
+        <v>161275</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>13439655</v>
+      </c>
+      <c r="I52" t="n">
+        <v>13439655</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>13439655</v>
+      </c>
+      <c r="M52" t="n">
+        <v>13439655</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-73756832</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-5590897</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>90852074</v>
+      </c>
+      <c r="R52" t="n">
+        <v>93844637</v>
+      </c>
+      <c r="S52" t="n">
+        <v>130878430000</v>
+      </c>
+      <c r="T52" t="n">
+        <v>124033930000</v>
+      </c>
+      <c r="U52" t="n">
+        <v>20</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z52" t="s"/>
+      <c r="AA52" t="s"/>
+      <c r="AB52" t="s"/>
+      <c r="AC52" t="s"/>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2961569</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>252511526</v>
+      </c>
+      <c r="I53" t="n">
+        <v>251930827</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>252511526</v>
+      </c>
+      <c r="M53" t="n">
+        <v>252511526</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-103922047</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-26061810</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>386548668</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1784479054</v>
+      </c>
+      <c r="S53" t="n">
+        <v>130878430000</v>
+      </c>
+      <c r="T53" t="n">
+        <v>124033930000</v>
+      </c>
+      <c r="U53" t="n">
+        <v>24</v>
+      </c>
+      <c r="V53" t="n">
+        <v>13</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2</v>
+      </c>
+      <c r="X53" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z53" t="s"/>
+      <c r="AA53" t="s"/>
+      <c r="AB53" t="n">
+        <v>559606904</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2626235802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7550000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>742480000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>741180000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>742480000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>742480000</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-699150000</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-404600000</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>11667240000</v>
+      </c>
+      <c r="S54" t="n">
+        <v>130878430000</v>
+      </c>
+      <c r="T54" t="n">
+        <v>124033930000</v>
+      </c>
+      <c r="U54" t="n">
+        <v>8</v>
+      </c>
+      <c r="V54" t="n">
+        <v>69</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z54" t="s"/>
+      <c r="AA54" t="s"/>
+      <c r="AB54" t="s"/>
+      <c r="AC54" t="s"/>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5124988</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>435391093</v>
+      </c>
+      <c r="I55" t="n">
+        <v>435391093</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>435391093</v>
+      </c>
+      <c r="M55" t="n">
+        <v>435391093</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-352065228</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-151420124</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>854672520</v>
+      </c>
+      <c r="S55" t="n">
+        <v>130878430000</v>
+      </c>
+      <c r="T55" t="n">
+        <v>124033930000</v>
+      </c>
+      <c r="U55" t="n">
+        <v>8</v>
+      </c>
+      <c r="V55" t="n">
+        <v>16</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>8550291185</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>350410715878</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="n">
         <v>57210550</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>5512932185</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I56" t="n">
         <v>5512932185</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>5512932185</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M56" t="n">
         <v>5512932185</v>
       </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
         <v>-4021578807</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P56" t="n">
         <v>-2411518763</v>
       </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
         <v>89332531967</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S56" t="n">
         <v>130878430000</v>
       </c>
-      <c r="T51" t="n">
+      <c r="T56" t="n">
         <v>124033930000</v>
       </c>
-      <c r="U51" t="n">
+      <c r="U56" t="n">
         <v>57</v>
       </c>
-      <c r="V51" t="n">
+      <c r="V56" t="n">
         <v>52</v>
       </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
         <v>16280</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Y56" t="n">
         <v>48</v>
       </c>
-      <c r="Z51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
         <v>0</v>
       </c>
     </row>
